--- a/data/trans_camb/P11_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P11_R2-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.60439904266627</v>
+        <v>-3.375113571030856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.296914213058188</v>
+        <v>-4.042987580784856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.458191002557101</v>
+        <v>5.817843685336835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.932457603223065</v>
+        <v>1.761039619013605</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.633156288844962</v>
+        <v>1.725949594345116</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.92019994086084</v>
+        <v>12.6402975985019</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.007573398405675905</v>
+        <v>-0.03974572105196245</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3227390872696242</v>
+        <v>-0.3326993342407617</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.43841283784749</v>
+        <v>10.30069868730949</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.76509140659288</v>
+        <v>1.892269897159292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9778766940039303</v>
+        <v>1.039925832341394</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.44602519352201</v>
+        <v>13.78873694242283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.404926414834789</v>
+        <v>7.451204698806214</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.154372738086509</v>
+        <v>7.115174411529705</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.0808841173773</v>
+        <v>19.5688659170045</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.847089394199611</v>
+        <v>3.932841875857068</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.259096999914923</v>
+        <v>3.332873181732682</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.50011497933081</v>
+        <v>15.58065878142544</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3954982621330183</v>
+        <v>-0.3836773722942324</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4636345775806378</v>
+        <v>-0.4383151963309126</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.554774784827369</v>
+        <v>0.6784890848981355</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1895853932292329</v>
+        <v>0.169596147719017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1589557246025839</v>
+        <v>0.1643941445678335</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.212063131897587</v>
+        <v>1.309596217948432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0008449940104961382</v>
+        <v>-0.009315901843450753</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03795009145173369</v>
+        <v>-0.03578492726590524</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.126574000247195</v>
+        <v>1.130572188160271</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3084634710861435</v>
+        <v>0.3219776688335134</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1653809420191727</v>
+        <v>0.181784788132044</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.199080653937577</v>
+        <v>2.408685210451075</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.054809770354767</v>
+        <v>1.072250823310926</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.002506687155097</v>
+        <v>1.039041622195021</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.714312328254478</v>
+        <v>2.744810193171531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5599736393211555</v>
+        <v>0.5731678685644578</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4736021796519513</v>
+        <v>0.4762230206218578</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.20153284441984</v>
+        <v>2.239480693252774</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.8207657474835848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.334710539243339</v>
+        <v>6.334710539243337</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.383675092834615</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4514721790343241</v>
+        <v>0.3797111584234167</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6223289655858225</v>
+        <v>-0.7111684294073439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.633797926310669</v>
+        <v>4.486712423462831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.345488747754837</v>
+        <v>4.1899136263828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.425953150235846</v>
+        <v>2.41655195776851</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.601093495572295</v>
+        <v>8.539844978774591</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.970926134563058</v>
+        <v>2.992483823633441</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.486739798667053</v>
+        <v>1.438301243207638</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.270956412069578</v>
+        <v>7.247383477064792</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.906659137251459</v>
+        <v>4.104388816784272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.425136912441734</v>
+        <v>2.209616769464956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.616054009142108</v>
+        <v>8.661115403480496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.702142497977009</v>
+        <v>8.693932802329959</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.551468271973508</v>
+        <v>6.562962140181041</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.46221926754601</v>
+        <v>12.51473695485669</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.77710689001783</v>
+        <v>5.791220522833394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.102678485370864</v>
+        <v>4.139729711165519</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.03077574417725</v>
+        <v>10.09343982257821</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3209267825695566</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>2.476928743800295</v>
+        <v>2.476928743800294</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.838451994954112</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09404182103600638</v>
+        <v>0.08498794885177167</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.207292590176012</v>
+        <v>-0.2074062420061496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.3929920203182</v>
+        <v>1.348815640279747</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.9852249101213081</v>
+        <v>0.9429655629975834</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5471457431676976</v>
+        <v>0.574940398112293</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.888708489926339</v>
+        <v>1.893600346704324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8185368762817796</v>
+        <v>0.8352948716767949</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4171190581199117</v>
+        <v>0.3918509630714997</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.998259501213966</v>
+        <v>1.991289759355288</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.992667257412809</v>
+        <v>2.068487293223639</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.244184243070088</v>
+        <v>1.197679416771056</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.583305156196485</v>
+        <v>4.456451905453029</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.26949997564011</v>
+        <v>3.078890531386768</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.399863134382056</v>
+        <v>2.582172791071409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.736295710610142</v>
+        <v>4.795944764915324</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.333110561548047</v>
+        <v>2.319683012575994</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.689661274066496</v>
+        <v>1.65752494437056</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.005235489767399</v>
+        <v>4.127095315762755</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.315759859652812</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.712579604903872</v>
+        <v>3.712579604903874</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5790042023624492</v>
+        <v>0.7748975149054952</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8962964700042495</v>
+        <v>-0.8197577086749308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.187791109688357</v>
+        <v>1.220462461347679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2953425473370795</v>
+        <v>0.2474764159293145</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0639825792848472</v>
+        <v>0.05598830813960157</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.718620953256862</v>
+        <v>2.801131952593837</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9745672752741473</v>
+        <v>1.04755313918875</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01130159104780536</v>
+        <v>0.1220272387167652</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.54302431778805</v>
+        <v>2.607557887719109</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.874785456842976</v>
+        <v>3.973492986330005</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.068991382890855</v>
+        <v>1.952183589260627</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.367355426398752</v>
+        <v>4.382300189128832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.40492839093658</v>
+        <v>4.474899984291287</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.37381503347103</v>
+        <v>4.449486237707635</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.418241622377932</v>
+        <v>6.543720152537919</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.656595450321231</v>
+        <v>3.712921538385171</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.599291188290807</v>
+        <v>2.708535489025413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.903446038387671</v>
+        <v>5.026733620947451</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.4211741986015103</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.18839522909013</v>
+        <v>1.188395229090131</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1499102343021656</v>
+        <v>0.2429256382599147</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3156290307027861</v>
+        <v>-0.2930754621600591</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3252071615585852</v>
+        <v>0.4006277783404935</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03906209790917602</v>
+        <v>0.0464444099165023</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01198786895115651</v>
+        <v>0.006267283613985683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5094729418035935</v>
+        <v>0.5176317309245393</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2661827463857296</v>
+        <v>0.2817113497624411</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0003639092846553263</v>
+        <v>0.03419389663182401</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6907013921058323</v>
+        <v>0.6809467379279648</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.196405345548696</v>
+        <v>2.311538457559232</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.245724057694488</v>
+        <v>1.10884636704801</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.445295682721983</v>
+        <v>2.541307873464075</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.408483349439347</v>
+        <v>1.420185352055414</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.481362240188151</v>
+        <v>1.443532755990382</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.123412926044045</v>
+        <v>2.118610470887275</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.34736929841426</v>
+        <v>1.398039242437107</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9863770544890099</v>
+        <v>1.05685360184906</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.880881150072397</v>
+        <v>1.985353940272709</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6157082244444195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.665640295782588</v>
+        <v>2.665640295782587</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.675391051439155</v>
@@ -1306,7 +1306,7 @@
         <v>1.96044147119906</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.85864666776106</v>
+        <v>2.858646667761061</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.345393953322186</v>
+        <v>-1.418578848258026</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.582402727816909</v>
+        <v>-1.576293478141986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3924065874237742</v>
+        <v>0.6629324678749384</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7839952287688949</v>
+        <v>0.9807126430879816</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4984992904198042</v>
+        <v>0.1247838802113145</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.01482543874272373</v>
+        <v>0.06014171905836987</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4251975831486354</v>
+        <v>0.8721453768313536</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1456739195829171</v>
+        <v>-0.01809221228289418</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.134060133548388</v>
+        <v>0.8446727578141359</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.126878743713947</v>
+        <v>3.743449818729591</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.278856018003492</v>
+        <v>3.278745527969722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.533421201539753</v>
+        <v>4.947369452992542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.113443118446053</v>
+        <v>8.076819334058591</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.460746246975511</v>
+        <v>6.496911902068497</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.232185365159031</v>
+        <v>5.063549737041699</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.863100468078542</v>
+        <v>4.910631982058864</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.971132337968377</v>
+        <v>4.000625786510105</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.375608681595345</v>
+        <v>4.345463128373595</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2084331593910592</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9023881874428942</v>
+        <v>0.9023881874428938</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.218636324422057</v>
@@ -1411,7 +1411,7 @@
         <v>0.5876761157175943</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8569286023577922</v>
+        <v>0.8569286023577923</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.355994860081599</v>
+        <v>-0.4257238382974096</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4184624349478165</v>
+        <v>-0.4133445141445123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05665059675851485</v>
+        <v>0.1193028605902561</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05619619851112165</v>
+        <v>0.08462164159226158</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1426675868924879</v>
+        <v>-0.04530698464652644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03307673754422002</v>
+        <v>-0.001044439343960067</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07703390086437503</v>
+        <v>0.1830871598616708</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07449671422995728</v>
+        <v>-0.05530963495481235</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2387107333988675</v>
+        <v>0.162478741205608</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.316522728513566</v>
+        <v>1.796395024254037</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.935780801217504</v>
+        <v>1.682149112591759</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.397194537427173</v>
+        <v>2.687940733915589</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.375012608417629</v>
+        <v>3.356589347966407</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.567842220893918</v>
+        <v>2.873100591986294</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.49555687350736</v>
+        <v>2.216296925177765</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.956229339531751</v>
+        <v>2.025886495487438</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.628638656260861</v>
+        <v>1.602239155158524</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.857183359043323</v>
+        <v>1.877573422964241</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.6964497279669218</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.572112587510786</v>
+        <v>4.572112587510787</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.795796621423451</v>
@@ -1520,7 +1520,7 @@
         <v>2.445143758656937</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.036284633664824</v>
+        <v>6.036284633664825</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6470949590009801</v>
+        <v>0.6861466581024802</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2234097782945273</v>
+        <v>-0.2877048652907113</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.509668465342609</v>
+        <v>3.475289180467728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.656024386721775</v>
+        <v>3.507093857442566</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.85098448133381</v>
+        <v>2.817897049039996</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.256446025006432</v>
+        <v>6.230135252380125</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.404544168358432</v>
+        <v>2.502259231457261</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.634836681861618</v>
+        <v>1.557261470297555</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.282799641020547</v>
+        <v>5.289525742401454</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.645966445349559</v>
+        <v>2.757098945887034</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.601108243333588</v>
+        <v>1.579119317333763</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.662063135241101</v>
+        <v>5.619497855650365</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.143409506376472</v>
+        <v>6.102335685763269</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.557068475807249</v>
+        <v>5.293731408479878</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.589346018582598</v>
+        <v>8.472283377868125</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.037505231894803</v>
+        <v>4.134111617904184</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.237324499681985</v>
+        <v>3.141796509864993</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.867949453443082</v>
+        <v>6.853642706609499</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2052293064632497</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.347306858954361</v>
+        <v>1.347306858954362</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.9551178233048696</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1569659755802758</v>
+        <v>0.187075462864282</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05903119559491007</v>
+        <v>-0.07988046004128702</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8906079702749881</v>
+        <v>0.8816041208798309</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6531180613976822</v>
+        <v>0.6324367407749975</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5125115332051809</v>
+        <v>0.4931157633418111</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.093819401974083</v>
+        <v>1.111675304509317</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5081580697190829</v>
+        <v>0.5467411663910954</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3517779889112152</v>
+        <v>0.3321491745820335</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.141745669716853</v>
+        <v>1.119367827416879</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8691833125043532</v>
+        <v>0.971617097399379</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5500102506210509</v>
+        <v>0.5291773487213751</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.905984028909776</v>
+        <v>1.915197518526457</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.402239779411221</v>
+        <v>1.343328063926681</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.238323694796536</v>
+        <v>1.177070108701133</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.925924886136088</v>
+        <v>1.899902590613004</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.026122595399622</v>
+        <v>1.079360768369331</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.829634118155971</v>
+        <v>0.8018418493368805</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.766699763228475</v>
+        <v>1.772819590915219</v>
       </c>
     </row>
     <row r="34">
